--- a/Zeus OS Workspace 2018 2.4/Zeus/data/TOP/Problems/PROB2-4-a.PRN.xlsx
+++ b/Zeus OS Workspace 2018 2.4/Zeus/data/TOP/Problems/PROB2-4-a.PRN.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="5269"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tripl\Documents\GitHub\Zeus-OS-Workspace-2018-2.4\Zeus OS Workspace 2018 2.4\Zeus\data\TOP\Problems\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6D3E81-680C-4B43-94CD-27171577BDFE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="0.001"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>No. Problems</t>
   </si>
@@ -238,65 +246,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="none"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="none"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill>
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border outline="0">
-      <left>
-        <color auto="1"/>
-      </left>
-      <right>
-        <color auto="1"/>
-      </right>
-      <top>
-        <color auto="1"/>
-      </top>
-      <bottom>
-        <color auto="1"/>
-      </bottom>
-      <diagonal>
-        <color auto="1"/>
-      </diagonal>
-      <vertical>
-        <color auto="1"/>
-      </vertical>
-      <horizontal>
-        <color auto="1"/>
-      </horizontal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -304,8 +288,18 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -352,13 +346,13 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="?? ?????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -384,15 +378,33 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="?? ?????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -418,6 +430,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,13 +623,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="1" max="4" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -613,7 +649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -627,7 +663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -641,7 +677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -655,7 +691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -669,7 +705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -683,7 +719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -697,7 +733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -711,7 +747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -725,7 +761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -739,7 +775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" ht="15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -753,7 +789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" ht="15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -767,7 +803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -781,7 +817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -795,7 +831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -809,7 +845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" ht="15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -823,7 +859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" ht="15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -837,7 +873,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" ht="15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -851,7 +887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" ht="15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -865,7 +901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" ht="15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -879,7 +915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" ht="15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -893,7 +929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" ht="15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -907,7 +943,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" ht="15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -921,7 +957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" ht="15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -942,20 +978,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
-  <sheetData>
-</sheetData>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
-  <sheetData>
-</sheetData>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait"/>
 </worksheet>
